--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r108_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r108_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -564,10 +576,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -611,28 +623,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -657,28 +669,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -911,10 +923,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -958,28 +970,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1004,28 +1016,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1229,10 +1241,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1276,28 +1288,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1322,28 +1334,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1663,10 +1675,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1710,28 +1722,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1756,28 +1768,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2010,10 +2022,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2057,28 +2069,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2103,28 +2115,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2357,10 +2369,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="J77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2404,28 +2416,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2450,28 +2462,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2733,10 +2745,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="J90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2780,28 +2792,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2826,28 +2838,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3051,10 +3063,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="J101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3098,28 +3110,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3144,28 +3156,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3456,10 +3468,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="J115" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3503,28 +3515,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3549,28 +3561,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3803,10 +3815,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
+      <c r="J127" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K127" s="2" t="s">
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3850,28 +3862,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3896,28 +3908,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4121,10 +4133,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="J138" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4168,28 +4180,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4214,28 +4226,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4526,10 +4538,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
+      <c r="J152" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="2" t="s">
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4573,28 +4585,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4619,28 +4631,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4815,10 +4827,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
+      <c r="J162" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K162" s="2" t="s">
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4862,28 +4874,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4908,28 +4920,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5075,10 +5087,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
+      <c r="J171" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="2" t="s">
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
